--- a/Code/Results/Cases/Case_3_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.1676427323093</v>
+        <v>13.22947826302449</v>
       </c>
       <c r="C2">
-        <v>8.052245163780677</v>
+        <v>11.05876974005799</v>
       </c>
       <c r="D2">
-        <v>6.650727154094639</v>
+        <v>9.57220978971997</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.18214740250044</v>
+        <v>34.26146669669116</v>
       </c>
       <c r="G2">
-        <v>24.39565398116924</v>
+        <v>36.07939500997963</v>
       </c>
       <c r="H2">
-        <v>9.78790288608568</v>
+        <v>16.28047994266157</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.345740207934424</v>
+        <v>10.90908626391087</v>
       </c>
       <c r="K2">
-        <v>11.45174165460585</v>
+        <v>9.170600578652673</v>
       </c>
       <c r="L2">
-        <v>7.185701084173695</v>
+        <v>11.2279975162594</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.05416440987186</v>
+        <v>25.72290425707454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.21855175359594</v>
+        <v>12.97435284918561</v>
       </c>
       <c r="C3">
-        <v>8.109087822656246</v>
+        <v>11.08100097019673</v>
       </c>
       <c r="D3">
-        <v>6.436788210445897</v>
+        <v>9.551659272247031</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.17034473580943</v>
+        <v>34.36554213281768</v>
       </c>
       <c r="G3">
-        <v>24.44603220505905</v>
+        <v>36.22348191828203</v>
       </c>
       <c r="H3">
-        <v>9.889159620411011</v>
+        <v>16.33406521253697</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.396460438813629</v>
+        <v>10.93454643410926</v>
       </c>
       <c r="K3">
-        <v>10.83769168746605</v>
+        <v>8.971254705129171</v>
       </c>
       <c r="L3">
-        <v>7.015407069109888</v>
+        <v>11.21886028932719</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.19001126657294</v>
+        <v>25.81909088076728</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.61663045983177</v>
+        <v>12.81683077433349</v>
       </c>
       <c r="C4">
-        <v>8.145959259195942</v>
+        <v>11.09560576612598</v>
       </c>
       <c r="D4">
-        <v>6.304231655949756</v>
+        <v>9.540397122944148</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.18036065317783</v>
+        <v>34.43631281885576</v>
       </c>
       <c r="G4">
-        <v>24.50213980316274</v>
+        <v>36.32102793603581</v>
       </c>
       <c r="H4">
-        <v>9.956270402578529</v>
+        <v>16.36921147705213</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.429543775596504</v>
+        <v>10.95118637905992</v>
       </c>
       <c r="K4">
-        <v>10.44188660592657</v>
+        <v>8.847357716119959</v>
       </c>
       <c r="L4">
-        <v>6.911205493244752</v>
+        <v>11.21459648685309</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.28477605099285</v>
+        <v>25.88274567337351</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37361293093513</v>
+        <v>12.75250255047548</v>
       </c>
       <c r="C5">
-        <v>8.161476587717276</v>
+        <v>11.10179796306167</v>
       </c>
       <c r="D5">
-        <v>6.249993824076227</v>
+        <v>9.536152100853606</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.18865022321431</v>
+        <v>34.46687739018469</v>
       </c>
       <c r="G5">
-        <v>24.5310766576015</v>
+        <v>36.36305495342317</v>
       </c>
       <c r="H5">
-        <v>9.984829463277016</v>
+        <v>16.38409884644246</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.443509180160505</v>
+        <v>10.95822110455121</v>
       </c>
       <c r="K5">
-        <v>10.275950827154</v>
+        <v>8.796557141934267</v>
       </c>
       <c r="L5">
-        <v>6.868886557842885</v>
+        <v>11.21319946167113</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.32614584481583</v>
+        <v>25.90984077040241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.33281677526836</v>
+        <v>12.74181510928964</v>
       </c>
       <c r="C6">
-        <v>8.164082845564009</v>
+        <v>11.10284072195226</v>
       </c>
       <c r="D6">
-        <v>6.240976866435441</v>
+        <v>9.535468114238519</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.19027690898102</v>
+        <v>34.47205673341347</v>
       </c>
       <c r="G6">
-        <v>24.53624079464651</v>
+        <v>36.37017080645229</v>
       </c>
       <c r="H6">
-        <v>9.98964393982625</v>
+        <v>16.38660502217787</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.445857216222938</v>
+        <v>10.95940456035173</v>
       </c>
       <c r="K6">
-        <v>10.24811965445242</v>
+        <v>8.78810488025303</v>
       </c>
       <c r="L6">
-        <v>6.861869826239412</v>
+        <v>11.21298810610805</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.3331785867075</v>
+        <v>25.91440965340756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.61338281623144</v>
+        <v>12.81596366362601</v>
       </c>
       <c r="C7">
-        <v>8.146166543802934</v>
+        <v>11.09568830124733</v>
       </c>
       <c r="D7">
-        <v>6.303500964944153</v>
+        <v>9.540338474291502</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.1804555889446</v>
+        <v>34.43671804194903</v>
       </c>
       <c r="G7">
-        <v>24.50250581018332</v>
+        <v>36.32158551884449</v>
       </c>
       <c r="H7">
-        <v>9.956650696730275</v>
+        <v>16.36940996501898</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.429730165063845</v>
+        <v>10.95128022345564</v>
       </c>
       <c r="K7">
-        <v>10.43966741429129</v>
+        <v>8.846673775385394</v>
       </c>
       <c r="L7">
-        <v>6.910634110087914</v>
+        <v>11.21457626493259</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.28532296666196</v>
+        <v>25.88310641028471</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.84765654601108</v>
+        <v>13.14174160168423</v>
       </c>
       <c r="C8">
-        <v>8.071433532044141</v>
+        <v>11.06623724331894</v>
       </c>
       <c r="D8">
-        <v>6.577256344378421</v>
+        <v>9.564844671620095</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.17441604744404</v>
+        <v>34.29592526761599</v>
       </c>
       <c r="G8">
-        <v>24.40764486292853</v>
+        <v>36.12718886423164</v>
       </c>
       <c r="H8">
-        <v>9.821771869139956</v>
+        <v>16.29849057965371</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.362822968281634</v>
+        <v>10.91765617872283</v>
       </c>
       <c r="K8">
-        <v>11.24395600436548</v>
+        <v>9.102215236650192</v>
       </c>
       <c r="L8">
-        <v>7.126940723476154</v>
+        <v>11.22456872713371</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.0985846216153</v>
+        <v>25.75511530323302</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.02324621607774</v>
+        <v>13.77012582586411</v>
       </c>
       <c r="C9">
-        <v>7.940680324460867</v>
+        <v>11.016034724283</v>
       </c>
       <c r="D9">
-        <v>7.101334720033433</v>
+        <v>9.623499875545628</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.30529706518136</v>
+        <v>34.07441266496973</v>
       </c>
       <c r="G9">
-        <v>24.43272350334044</v>
+        <v>35.81825484290141</v>
       </c>
       <c r="H9">
-        <v>9.597963346402</v>
+        <v>16.17720430074247</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.247232319798466</v>
+        <v>10.85968852795131</v>
       </c>
       <c r="K9">
-        <v>12.66960350628558</v>
+        <v>9.588726116058551</v>
       </c>
       <c r="L9">
-        <v>7.551714363080047</v>
+        <v>11.25475886102277</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.82731673427804</v>
+        <v>25.54060857860528</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.45601073033517</v>
+        <v>14.22089750755456</v>
       </c>
       <c r="C10">
-        <v>7.854504057532735</v>
+        <v>10.9837208351198</v>
       </c>
       <c r="D10">
-        <v>7.474699441334122</v>
+        <v>9.672826677338191</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.49600859861496</v>
+        <v>33.94505444143533</v>
       </c>
       <c r="G10">
-        <v>24.59491858944867</v>
+        <v>35.63569168833312</v>
       </c>
       <c r="H10">
-        <v>9.460583140842923</v>
+        <v>16.09890478974659</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.172150339748046</v>
+        <v>10.82192535076237</v>
       </c>
       <c r="K10">
-        <v>13.62223550286285</v>
+        <v>9.933836025789601</v>
       </c>
       <c r="L10">
-        <v>7.861322214927916</v>
+        <v>11.28327289086737</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.6928646124279</v>
+        <v>25.40527549294825</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.072489436092</v>
+        <v>14.42270894667345</v>
       </c>
       <c r="C11">
-        <v>7.817512074065588</v>
+        <v>10.97000572746945</v>
       </c>
       <c r="D11">
-        <v>7.641326702535135</v>
+        <v>9.696566729611039</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.60480661014863</v>
+        <v>33.89347676555048</v>
       </c>
       <c r="G11">
-        <v>24.70297786924175</v>
+        <v>35.56235289933957</v>
       </c>
       <c r="H11">
-        <v>9.404504550050696</v>
+        <v>16.06562458833897</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.140211178213423</v>
+        <v>10.80578690551399</v>
       </c>
       <c r="K11">
-        <v>14.03476809738182</v>
+        <v>10.08750040888381</v>
       </c>
       <c r="L11">
-        <v>8.001095274118008</v>
+        <v>11.29759033505864</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.64738373568553</v>
+        <v>25.34854891503797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.30091139406525</v>
+        <v>14.49859388727008</v>
       </c>
       <c r="C12">
-        <v>7.803828144127761</v>
+        <v>10.96495322623205</v>
       </c>
       <c r="D12">
-        <v>7.703912575364338</v>
+        <v>9.705738669532249</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.64929025182141</v>
+        <v>33.87499224143102</v>
       </c>
       <c r="G12">
-        <v>24.74906094209842</v>
+        <v>35.53598319961246</v>
       </c>
       <c r="H12">
-        <v>9.38424150068078</v>
+        <v>16.05335806236167</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.128442872754539</v>
+        <v>10.79982476220932</v>
       </c>
       <c r="K12">
-        <v>14.18797874220705</v>
+        <v>10.14516051541222</v>
       </c>
       <c r="L12">
-        <v>8.05382971550185</v>
+        <v>11.30320280768227</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.63255542361802</v>
+        <v>25.32776415536865</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.25193932706824</v>
+        <v>14.48227564277014</v>
       </c>
       <c r="C13">
-        <v>7.806760700481131</v>
+        <v>10.96603510431551</v>
       </c>
       <c r="D13">
-        <v>7.690457090082716</v>
+        <v>9.703755311010326</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.63956208084871</v>
+        <v>33.87892663192633</v>
       </c>
       <c r="G13">
-        <v>24.73890289281771</v>
+        <v>35.54159993752389</v>
       </c>
       <c r="H13">
-        <v>9.388561413344771</v>
+        <v>16.05598494123032</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.130962742834907</v>
+        <v>10.80110219064238</v>
       </c>
       <c r="K13">
-        <v>14.15511591041122</v>
+        <v>10.13276668755898</v>
       </c>
       <c r="L13">
-        <v>8.042481673647757</v>
+        <v>11.30198562330438</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.63564020949693</v>
+        <v>25.33220954163888</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.09138226986335</v>
+        <v>14.42896318694271</v>
       </c>
       <c r="C14">
-        <v>7.81637975452216</v>
+        <v>10.96958722976745</v>
       </c>
       <c r="D14">
-        <v>7.64648620687384</v>
+        <v>9.697317690451454</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.60839985205607</v>
+        <v>33.8919350437706</v>
       </c>
       <c r="G14">
-        <v>24.70666437349335</v>
+        <v>35.56015531562849</v>
       </c>
       <c r="H14">
-        <v>9.402817702604835</v>
+        <v>16.06460868248755</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.139236405284865</v>
+        <v>10.80529341002996</v>
       </c>
       <c r="K14">
-        <v>14.0474331245515</v>
+        <v>10.09225502525444</v>
       </c>
       <c r="L14">
-        <v>8.005437888404527</v>
+        <v>11.29804826996932</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.64611500110898</v>
+        <v>25.34682497963231</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.99238351298175</v>
+        <v>14.39623587817808</v>
       </c>
       <c r="C15">
-        <v>7.822314112060812</v>
+        <v>10.97178137207889</v>
       </c>
       <c r="D15">
-        <v>7.619484701945245</v>
+        <v>9.693398024750472</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.5897430793954</v>
+        <v>33.90003944559006</v>
       </c>
       <c r="G15">
-        <v>24.68759650827341</v>
+        <v>35.5717037841357</v>
       </c>
       <c r="H15">
-        <v>9.411678313840572</v>
+        <v>16.06993471588244</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.144347004744969</v>
+        <v>10.80788006164779</v>
       </c>
       <c r="K15">
-        <v>13.981082554409</v>
+        <v>10.06737009405119</v>
       </c>
       <c r="L15">
-        <v>7.982721012994165</v>
+        <v>11.29566128469851</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.65284713914845</v>
+        <v>25.35586806812929</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.41501645811229</v>
+        <v>14.20763726076375</v>
       </c>
       <c r="C16">
-        <v>7.856966570410171</v>
+        <v>10.98463692219143</v>
       </c>
       <c r="D16">
-        <v>7.463740822061286</v>
+        <v>9.671300967547806</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.48935187336058</v>
+        <v>33.94857156396166</v>
       </c>
       <c r="G16">
-        <v>24.58856672524799</v>
+        <v>35.64068044520987</v>
       </c>
       <c r="H16">
-        <v>9.46438131450742</v>
+        <v>16.1011267601256</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.17428287375414</v>
+        <v>10.82300092964451</v>
       </c>
       <c r="K16">
-        <v>13.59485527958697</v>
+        <v>9.923722313128405</v>
       </c>
       <c r="L16">
-        <v>7.852162625090707</v>
+        <v>11.28236406430927</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.69616424901238</v>
+        <v>25.409080111146</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.0518163076821</v>
+        <v>14.09105555988985</v>
       </c>
       <c r="C17">
-        <v>7.878795099826963</v>
+        <v>10.99277523442534</v>
       </c>
       <c r="D17">
-        <v>7.367335471277682</v>
+        <v>9.658074882976738</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.43349414818065</v>
+        <v>33.98020722600747</v>
       </c>
       <c r="G17">
-        <v>24.5367649753038</v>
+        <v>35.68548659817129</v>
       </c>
       <c r="H17">
-        <v>9.498390714870339</v>
+        <v>16.12086081213509</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.193220400058017</v>
+        <v>10.83254319720426</v>
       </c>
       <c r="K17">
-        <v>13.35257260227977</v>
+        <v>9.834709464921648</v>
       </c>
       <c r="L17">
-        <v>7.771765195494604</v>
+        <v>11.27454949660424</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.72685195421329</v>
+        <v>25.44296344185995</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.83958819349054</v>
+        <v>14.02369915344597</v>
       </c>
       <c r="C18">
-        <v>7.891557898595376</v>
+        <v>10.99754888381192</v>
       </c>
       <c r="D18">
-        <v>7.311585289719932</v>
+        <v>9.65059036161496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.40343453198336</v>
+        <v>33.99908723439998</v>
       </c>
       <c r="G18">
-        <v>24.51018292557637</v>
+        <v>35.71217154224396</v>
       </c>
       <c r="H18">
-        <v>9.518552744643946</v>
+        <v>16.13243145954945</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.204320844530827</v>
+        <v>10.83812959326194</v>
       </c>
       <c r="K18">
-        <v>13.2112580740169</v>
+        <v>9.783201197659169</v>
       </c>
       <c r="L18">
-        <v>7.725424299152881</v>
+        <v>11.27018165906824</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.7459701347309</v>
+        <v>25.46290748273959</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.76715882375353</v>
+        <v>14.00084380904839</v>
       </c>
       <c r="C19">
-        <v>7.895914635813087</v>
+        <v>10.9991810967229</v>
       </c>
       <c r="D19">
-        <v>7.292659260308011</v>
+        <v>9.648077466221855</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.39360849870955</v>
+        <v>34.00559710600157</v>
       </c>
       <c r="G19">
-        <v>24.50172716977931</v>
+        <v>35.72136334142157</v>
       </c>
       <c r="H19">
-        <v>9.525480971890524</v>
+        <v>16.13638690191312</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.208114778606283</v>
+        <v>10.84003788527369</v>
       </c>
       <c r="K19">
-        <v>13.16307527853077</v>
+        <v>9.765709671793154</v>
       </c>
       <c r="L19">
-        <v>7.709718470714573</v>
+        <v>11.26872466247021</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.75269109155064</v>
+        <v>25.46973835701156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.0908233491752</v>
+        <v>14.10349762396238</v>
       </c>
       <c r="C20">
-        <v>7.876449885128579</v>
+        <v>10.99189930580511</v>
       </c>
       <c r="D20">
-        <v>7.377629451870381</v>
+        <v>9.659470151242427</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.43922539099495</v>
+        <v>33.97676875021601</v>
       </c>
       <c r="G20">
-        <v>24.54194509192167</v>
+        <v>35.68062230651681</v>
       </c>
       <c r="H20">
-        <v>9.494707833064906</v>
+        <v>16.11873730709396</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.191182878916616</v>
+        <v>10.83151727375582</v>
       </c>
       <c r="K20">
-        <v>13.37856696522578</v>
+        <v>9.844217542028838</v>
       </c>
       <c r="L20">
-        <v>7.780334133355238</v>
+        <v>11.27536825753242</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.72343232975203</v>
+        <v>25.43930938154974</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.1386777475545</v>
+        <v>14.44463744803731</v>
       </c>
       <c r="C21">
-        <v>7.813545555033199</v>
+        <v>10.96854005844977</v>
       </c>
       <c r="D21">
-        <v>7.6594157860502</v>
+        <v>9.699203674394973</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.61746294003365</v>
+        <v>33.88808573493868</v>
       </c>
       <c r="G21">
-        <v>24.71599167233928</v>
+        <v>35.55466705352958</v>
       </c>
       <c r="H21">
-        <v>9.398603468873585</v>
+        <v>16.06206656523401</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.136797307887541</v>
+        <v>10.80405830332738</v>
       </c>
       <c r="K21">
-        <v>14.07914382077294</v>
+        <v>10.10416903257192</v>
       </c>
       <c r="L21">
-        <v>8.016324133513129</v>
+        <v>11.29919961191432</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.6429721861843</v>
+        <v>25.34251316576547</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.79424467357216</v>
+        <v>14.66443450919456</v>
       </c>
       <c r="C22">
-        <v>7.774326580264272</v>
+        <v>10.95409573306573</v>
       </c>
       <c r="D22">
-        <v>7.840575168549914</v>
+        <v>9.726230772411197</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.75314300216047</v>
+        <v>33.83622858318914</v>
       </c>
       <c r="G22">
-        <v>24.85993637025634</v>
+        <v>35.48052307489782</v>
       </c>
       <c r="H22">
-        <v>9.341489249751287</v>
+        <v>16.02698707079787</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.103159557801499</v>
+        <v>10.78698135236271</v>
       </c>
       <c r="K22">
-        <v>14.51948692230125</v>
+        <v>10.27095646956198</v>
       </c>
       <c r="L22">
-        <v>8.169406855621471</v>
+        <v>11.31588531004004</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.60441068407154</v>
+        <v>25.28331055512667</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.44701738580741</v>
+        <v>14.54743556512819</v>
       </c>
       <c r="C23">
-        <v>7.795083065106581</v>
+        <v>10.96172985795011</v>
       </c>
       <c r="D23">
-        <v>7.744176584416729</v>
+        <v>9.711710709993515</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.67893574949861</v>
+        <v>33.86334685092128</v>
       </c>
       <c r="G23">
-        <v>24.78027352155522</v>
+        <v>35.51934524448081</v>
       </c>
       <c r="H23">
-        <v>9.37143352877818</v>
+        <v>16.04553059546099</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.120935498496531</v>
+        <v>10.79601626813729</v>
       </c>
       <c r="K23">
-        <v>14.28607296878548</v>
+        <v>10.18223887831515</v>
       </c>
       <c r="L23">
-        <v>8.08782148258328</v>
+        <v>11.30687919399426</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.62366124923744</v>
+        <v>25.31453641333204</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.07319892049416</v>
+        <v>14.09787359565825</v>
       </c>
       <c r="C24">
-        <v>7.877509492826388</v>
+        <v>10.99229501772733</v>
       </c>
       <c r="D24">
-        <v>7.37297655315763</v>
+        <v>9.65883897839195</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.43662790794646</v>
+        <v>33.97832112896423</v>
       </c>
       <c r="G24">
-        <v>24.5395932135143</v>
+        <v>35.68281857100462</v>
       </c>
       <c r="H24">
-        <v>9.496370968987799</v>
+        <v>16.11969664196815</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.192103379325459</v>
+        <v>10.83198078091697</v>
       </c>
       <c r="K24">
-        <v>13.36682121390627</v>
+        <v>9.839919975553183</v>
       </c>
       <c r="L24">
-        <v>7.776460485132023</v>
+        <v>11.27499770658056</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.72497375688583</v>
+        <v>25.44095993674792</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.4639948214687</v>
+        <v>13.60173142717086</v>
       </c>
       <c r="C25">
-        <v>7.974336352473737</v>
+        <v>11.02881092694039</v>
       </c>
       <c r="D25">
-        <v>6.961351257536339</v>
+        <v>9.60652006598008</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.25381282321864</v>
+        <v>34.12848208150153</v>
       </c>
       <c r="G25">
-        <v>24.40175576435498</v>
+        <v>35.89405510508868</v>
       </c>
       <c r="H25">
-        <v>9.653932364858347</v>
+        <v>16.2081148120579</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.276799502978996</v>
+        <v>10.87452055201091</v>
       </c>
       <c r="K25">
-        <v>12.3004506826133</v>
+        <v>9.459042193630546</v>
       </c>
       <c r="L25">
-        <v>7.437041952066711</v>
+        <v>11.24546976929402</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.88983848546799</v>
+        <v>25.5947301044241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.22947826302449</v>
+        <v>14.16764273230924</v>
       </c>
       <c r="C2">
-        <v>11.05876974005799</v>
+        <v>8.052245163780688</v>
       </c>
       <c r="D2">
-        <v>9.57220978971997</v>
+        <v>6.650727154094651</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.26146669669116</v>
+        <v>22.18214740250032</v>
       </c>
       <c r="G2">
-        <v>36.07939500997963</v>
+        <v>24.39565398116892</v>
       </c>
       <c r="H2">
-        <v>16.28047994266157</v>
+        <v>9.787902886085554</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.90908626391087</v>
+        <v>6.345740207934424</v>
       </c>
       <c r="K2">
-        <v>9.170600578652673</v>
+        <v>11.45174165460582</v>
       </c>
       <c r="L2">
-        <v>11.2279975162594</v>
+        <v>7.185701084173654</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.72290425707454</v>
+        <v>16.05416440987171</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.97435284918561</v>
+        <v>13.21855175359595</v>
       </c>
       <c r="C3">
-        <v>11.08100097019673</v>
+        <v>8.10908782265612</v>
       </c>
       <c r="D3">
-        <v>9.551659272247031</v>
+        <v>6.436788210445816</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.36554213281768</v>
+        <v>22.17034473580931</v>
       </c>
       <c r="G3">
-        <v>36.22348191828203</v>
+        <v>24.44603220505882</v>
       </c>
       <c r="H3">
-        <v>16.33406521253697</v>
+        <v>9.889159620411013</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.93454643410926</v>
+        <v>6.3964604388136</v>
       </c>
       <c r="K3">
-        <v>8.971254705129171</v>
+        <v>10.83769168746605</v>
       </c>
       <c r="L3">
-        <v>11.21886028932719</v>
+        <v>7.01540706910989</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.81909088076728</v>
+        <v>16.19001126657283</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.81683077433349</v>
+        <v>12.61663045983174</v>
       </c>
       <c r="C4">
-        <v>11.09560576612598</v>
+        <v>8.14595925919568</v>
       </c>
       <c r="D4">
-        <v>9.540397122944148</v>
+        <v>6.304231655949663</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.43631281885576</v>
+        <v>22.18036065317776</v>
       </c>
       <c r="G4">
-        <v>36.32102793603581</v>
+        <v>24.50213980316273</v>
       </c>
       <c r="H4">
-        <v>16.36921147705213</v>
+        <v>9.956270402578458</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.95118637905992</v>
+        <v>6.429543775596438</v>
       </c>
       <c r="K4">
-        <v>8.847357716119959</v>
+        <v>10.44188660592654</v>
       </c>
       <c r="L4">
-        <v>11.21459648685309</v>
+        <v>6.911205493244754</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.88274567337351</v>
+        <v>16.28477605099283</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.75250255047548</v>
+        <v>12.3736129309351</v>
       </c>
       <c r="C5">
-        <v>11.10179796306167</v>
+        <v>8.161476587717276</v>
       </c>
       <c r="D5">
-        <v>9.536152100853606</v>
+        <v>6.249993824076286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.46687739018469</v>
+        <v>22.18865022321419</v>
       </c>
       <c r="G5">
-        <v>36.36305495342317</v>
+        <v>24.53107665760139</v>
       </c>
       <c r="H5">
-        <v>16.38409884644246</v>
+        <v>9.984829463276949</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.95822110455121</v>
+        <v>6.443509180160602</v>
       </c>
       <c r="K5">
-        <v>8.796557141934267</v>
+        <v>10.27595082715407</v>
       </c>
       <c r="L5">
-        <v>11.21319946167113</v>
+        <v>6.86888655784286</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.90984077040241</v>
+        <v>16.32614584481573</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.74181510928964</v>
+        <v>12.33281677526839</v>
       </c>
       <c r="C6">
-        <v>11.10284072195226</v>
+        <v>8.164082845564137</v>
       </c>
       <c r="D6">
-        <v>9.535468114238519</v>
+        <v>6.240976866435561</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.47205673341347</v>
+        <v>22.19027690898113</v>
       </c>
       <c r="G6">
-        <v>36.37017080645229</v>
+        <v>24.53624079464653</v>
       </c>
       <c r="H6">
-        <v>16.38660502217787</v>
+        <v>9.98964393982631</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.95940456035173</v>
+        <v>6.445857216222974</v>
       </c>
       <c r="K6">
-        <v>8.78810488025303</v>
+        <v>10.2481196544524</v>
       </c>
       <c r="L6">
-        <v>11.21298810610805</v>
+        <v>6.861869826239454</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.91440965340756</v>
+        <v>16.33317858670756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.81596366362601</v>
+        <v>12.61338281623144</v>
       </c>
       <c r="C7">
-        <v>11.09568830124733</v>
+        <v>8.146166543803073</v>
       </c>
       <c r="D7">
-        <v>9.540338474291502</v>
+        <v>6.3035009649441</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.43671804194903</v>
+        <v>22.18045558894443</v>
       </c>
       <c r="G7">
-        <v>36.32158551884449</v>
+        <v>24.50250581018311</v>
       </c>
       <c r="H7">
-        <v>16.36940996501898</v>
+        <v>9.956650696730275</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.95128022345564</v>
+        <v>6.429730165063812</v>
       </c>
       <c r="K7">
-        <v>8.846673775385394</v>
+        <v>10.43966741429137</v>
       </c>
       <c r="L7">
-        <v>11.21457626493259</v>
+        <v>6.910634110087901</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.88310641028471</v>
+        <v>16.28532296666187</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.14174160168423</v>
+        <v>13.84765654601105</v>
       </c>
       <c r="C8">
-        <v>11.06623724331894</v>
+        <v>8.071433532044276</v>
       </c>
       <c r="D8">
-        <v>9.564844671620095</v>
+        <v>6.577256344378315</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.29592526761599</v>
+        <v>22.17441604744403</v>
       </c>
       <c r="G8">
-        <v>36.12718886423164</v>
+        <v>24.4076448629286</v>
       </c>
       <c r="H8">
-        <v>16.29849057965371</v>
+        <v>9.821771869140019</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.91765617872283</v>
+        <v>6.362822968281725</v>
       </c>
       <c r="K8">
-        <v>9.102215236650192</v>
+        <v>11.24395600436549</v>
       </c>
       <c r="L8">
-        <v>11.22456872713371</v>
+        <v>7.126940723476133</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.75511530323302</v>
+        <v>16.09858462161536</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.77012582586411</v>
+        <v>16.02324621607773</v>
       </c>
       <c r="C9">
-        <v>11.016034724283</v>
+        <v>7.940680324460995</v>
       </c>
       <c r="D9">
-        <v>9.623499875545628</v>
+        <v>7.101334720033482</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.07441266496973</v>
+        <v>22.30529706518144</v>
       </c>
       <c r="G9">
-        <v>35.81825484290141</v>
+        <v>24.43272350334038</v>
       </c>
       <c r="H9">
-        <v>16.17720430074247</v>
+        <v>9.597963346402114</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.85968852795131</v>
+        <v>6.247232319798465</v>
       </c>
       <c r="K9">
-        <v>9.588726116058551</v>
+        <v>12.66960350628559</v>
       </c>
       <c r="L9">
-        <v>11.25475886102277</v>
+        <v>7.551714363080003</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.54060857860528</v>
+        <v>15.82731673427805</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.22089750755456</v>
+        <v>17.45601073033525</v>
       </c>
       <c r="C10">
-        <v>10.9837208351198</v>
+        <v>7.854504057532466</v>
       </c>
       <c r="D10">
-        <v>9.672826677338191</v>
+        <v>7.474699441333968</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.94505444143533</v>
+        <v>22.49600859861459</v>
       </c>
       <c r="G10">
-        <v>35.63569168833312</v>
+        <v>24.59491858944845</v>
       </c>
       <c r="H10">
-        <v>16.09890478974659</v>
+        <v>9.460583140842761</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.82192535076237</v>
+        <v>6.172150339748044</v>
       </c>
       <c r="K10">
-        <v>9.933836025789601</v>
+        <v>13.6222355028629</v>
       </c>
       <c r="L10">
-        <v>11.28327289086737</v>
+        <v>7.861322214927827</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.40527549294825</v>
+        <v>15.69286461242771</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.42270894667345</v>
+        <v>18.07248943609205</v>
       </c>
       <c r="C11">
-        <v>10.97000572746945</v>
+        <v>7.817512074065323</v>
       </c>
       <c r="D11">
-        <v>9.696566729611039</v>
+        <v>7.641326702535113</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.89347676555048</v>
+        <v>22.60480661014847</v>
       </c>
       <c r="G11">
-        <v>35.56235289933957</v>
+        <v>24.70297786924156</v>
       </c>
       <c r="H11">
-        <v>16.06562458833897</v>
+        <v>9.404504550050682</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.80578690551399</v>
+        <v>6.140211178213387</v>
       </c>
       <c r="K11">
-        <v>10.08750040888381</v>
+        <v>14.03476809738182</v>
       </c>
       <c r="L11">
-        <v>11.29759033505864</v>
+        <v>8.001095274117981</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.34854891503797</v>
+        <v>15.64738373568544</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.49859388727008</v>
+        <v>18.30091139406523</v>
       </c>
       <c r="C12">
-        <v>10.96495322623205</v>
+        <v>7.803828144127885</v>
       </c>
       <c r="D12">
-        <v>9.705738669532249</v>
+        <v>7.703912575364229</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.87499224143102</v>
+        <v>22.64929025182137</v>
       </c>
       <c r="G12">
-        <v>35.53598319961246</v>
+        <v>24.7490609420985</v>
       </c>
       <c r="H12">
-        <v>16.05335806236167</v>
+        <v>9.384241500680728</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.79982476220932</v>
+        <v>6.128442872754541</v>
       </c>
       <c r="K12">
-        <v>10.14516051541222</v>
+        <v>14.18797874220708</v>
       </c>
       <c r="L12">
-        <v>11.30320280768227</v>
+        <v>8.053829715501793</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.32776415536865</v>
+        <v>15.63255542361799</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.48227564277014</v>
+        <v>18.25193932706827</v>
       </c>
       <c r="C13">
-        <v>10.96603510431551</v>
+        <v>7.806760700480863</v>
       </c>
       <c r="D13">
-        <v>9.703755311010326</v>
+        <v>7.6904570900827</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.87892663192633</v>
+        <v>22.63956208084876</v>
       </c>
       <c r="G13">
-        <v>35.54159993752389</v>
+        <v>24.73890289281778</v>
       </c>
       <c r="H13">
-        <v>16.05598494123032</v>
+        <v>9.388561413344778</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.80110219064238</v>
+        <v>6.130962742834909</v>
       </c>
       <c r="K13">
-        <v>10.13276668755898</v>
+        <v>14.1551159104112</v>
       </c>
       <c r="L13">
-        <v>11.30198562330438</v>
+        <v>8.042481673647796</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.33220954163888</v>
+        <v>15.63564020949695</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.42896318694271</v>
+        <v>18.09138226986338</v>
       </c>
       <c r="C14">
-        <v>10.96958722976745</v>
+        <v>7.816379754522409</v>
       </c>
       <c r="D14">
-        <v>9.697317690451454</v>
+        <v>7.646486206873922</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.8919350437706</v>
+        <v>22.60839985205603</v>
       </c>
       <c r="G14">
-        <v>35.56015531562849</v>
+        <v>24.7066643734931</v>
       </c>
       <c r="H14">
-        <v>16.06460868248755</v>
+        <v>9.402817702604795</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.80529341002996</v>
+        <v>6.139236405284835</v>
       </c>
       <c r="K14">
-        <v>10.09225502525444</v>
+        <v>14.04743312455156</v>
       </c>
       <c r="L14">
-        <v>11.29804826996932</v>
+        <v>8.005437888404552</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.34682497963231</v>
+        <v>15.64611500110886</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.39623587817808</v>
+        <v>17.9923835129818</v>
       </c>
       <c r="C15">
-        <v>10.97178137207889</v>
+        <v>7.822314112060949</v>
       </c>
       <c r="D15">
-        <v>9.693398024750472</v>
+        <v>7.619484701945245</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.90003944559006</v>
+        <v>22.58974307939532</v>
       </c>
       <c r="G15">
-        <v>35.5717037841357</v>
+        <v>24.68759650827325</v>
       </c>
       <c r="H15">
-        <v>16.06993471588244</v>
+        <v>9.411678313840513</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.80788006164779</v>
+        <v>6.144347004744914</v>
       </c>
       <c r="K15">
-        <v>10.06737009405119</v>
+        <v>13.98108255440903</v>
       </c>
       <c r="L15">
-        <v>11.29566128469851</v>
+        <v>7.982721012994141</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.35586806812929</v>
+        <v>15.65284713914838</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.20763726076375</v>
+        <v>17.41501645811228</v>
       </c>
       <c r="C16">
-        <v>10.98463692219143</v>
+        <v>7.856966570410171</v>
       </c>
       <c r="D16">
-        <v>9.671300967547806</v>
+        <v>7.463740822061227</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.94857156396166</v>
+        <v>22.48935187336075</v>
       </c>
       <c r="G16">
-        <v>35.64068044520987</v>
+        <v>24.58856672524825</v>
       </c>
       <c r="H16">
-        <v>16.1011267601256</v>
+        <v>9.464381314507522</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.82300092964451</v>
+        <v>6.174282873754169</v>
       </c>
       <c r="K16">
-        <v>9.923722313128405</v>
+        <v>13.59485527958694</v>
       </c>
       <c r="L16">
-        <v>11.28236406430927</v>
+        <v>7.852162625090737</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.409080111146</v>
+        <v>15.69616424901256</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.09105555988985</v>
+        <v>17.05181630768213</v>
       </c>
       <c r="C17">
-        <v>10.99277523442534</v>
+        <v>7.878795099827225</v>
       </c>
       <c r="D17">
-        <v>9.658074882976738</v>
+        <v>7.367335471277634</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.98020722600747</v>
+        <v>22.43349414818045</v>
       </c>
       <c r="G17">
-        <v>35.68548659817129</v>
+        <v>24.53676497530351</v>
       </c>
       <c r="H17">
-        <v>16.12086081213509</v>
+        <v>9.498390714870274</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.83254319720426</v>
+        <v>6.193220400058046</v>
       </c>
       <c r="K17">
-        <v>9.834709464921648</v>
+        <v>13.35257260227985</v>
       </c>
       <c r="L17">
-        <v>11.27454949660424</v>
+        <v>7.771765195494594</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.44296344185995</v>
+        <v>15.72685195421313</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.02369915344597</v>
+        <v>16.83958819349055</v>
       </c>
       <c r="C18">
-        <v>10.99754888381192</v>
+        <v>7.891557898595113</v>
       </c>
       <c r="D18">
-        <v>9.65059036161496</v>
+        <v>7.311585289719905</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.99908723439998</v>
+        <v>22.40343453198326</v>
       </c>
       <c r="G18">
-        <v>35.71217154224396</v>
+        <v>24.51018292557629</v>
       </c>
       <c r="H18">
-        <v>16.13243145954945</v>
+        <v>9.518552744643943</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.83812959326194</v>
+        <v>6.204320844530828</v>
       </c>
       <c r="K18">
-        <v>9.783201197659169</v>
+        <v>13.21125807401692</v>
       </c>
       <c r="L18">
-        <v>11.27018165906824</v>
+        <v>7.725424299152901</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.46290748273959</v>
+        <v>15.74597013473085</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.00084380904839</v>
+        <v>16.76715882375354</v>
       </c>
       <c r="C19">
-        <v>10.9991810967229</v>
+        <v>7.895914635812959</v>
       </c>
       <c r="D19">
-        <v>9.648077466221855</v>
+        <v>7.292659260308008</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.00559710600157</v>
+        <v>22.39360849870954</v>
       </c>
       <c r="G19">
-        <v>35.72136334142157</v>
+        <v>24.50172716977919</v>
       </c>
       <c r="H19">
-        <v>16.13638690191312</v>
+        <v>9.525480971890531</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.84003788527369</v>
+        <v>6.208114778606314</v>
       </c>
       <c r="K19">
-        <v>9.765709671793154</v>
+        <v>13.16307527853078</v>
       </c>
       <c r="L19">
-        <v>11.26872466247021</v>
+        <v>7.709718470714606</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.46973835701156</v>
+        <v>15.75269109155059</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.10349762396238</v>
+        <v>17.09082334917519</v>
       </c>
       <c r="C20">
-        <v>10.99189930580511</v>
+        <v>7.876449885128458</v>
       </c>
       <c r="D20">
-        <v>9.659470151242427</v>
+        <v>7.377629451870447</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.97676875021601</v>
+        <v>22.43922539099483</v>
       </c>
       <c r="G20">
-        <v>35.68062230651681</v>
+        <v>24.54194509192131</v>
       </c>
       <c r="H20">
-        <v>16.11873730709396</v>
+        <v>9.49470783306484</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.83151727375582</v>
+        <v>6.191182878916498</v>
       </c>
       <c r="K20">
-        <v>9.844217542028838</v>
+        <v>13.37856696522579</v>
       </c>
       <c r="L20">
-        <v>11.27536825753242</v>
+        <v>7.780334133355248</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.43930938154974</v>
+        <v>15.72343232975189</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.44463744803731</v>
+        <v>18.13867774755445</v>
       </c>
       <c r="C21">
-        <v>10.96854005844977</v>
+        <v>7.813545555033202</v>
       </c>
       <c r="D21">
-        <v>9.699203674394973</v>
+        <v>7.659415786050245</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.88808573493868</v>
+        <v>22.61746294003373</v>
       </c>
       <c r="G21">
-        <v>35.55466705352958</v>
+        <v>24.71599167233945</v>
       </c>
       <c r="H21">
-        <v>16.06206656523401</v>
+        <v>9.398603468873583</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.80405830332738</v>
+        <v>6.136797307887541</v>
       </c>
       <c r="K21">
-        <v>10.10416903257192</v>
+        <v>14.0791438207729</v>
       </c>
       <c r="L21">
-        <v>11.29919961191432</v>
+        <v>8.016324133513152</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.34251316576547</v>
+        <v>15.64297218618433</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.66443450919456</v>
+        <v>18.79424467357223</v>
       </c>
       <c r="C22">
-        <v>10.95409573306573</v>
+        <v>7.774326580263886</v>
       </c>
       <c r="D22">
-        <v>9.726230772411197</v>
+        <v>7.840575168549979</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.83622858318914</v>
+        <v>22.75314300216034</v>
       </c>
       <c r="G22">
-        <v>35.48052307489782</v>
+        <v>24.8599363702562</v>
       </c>
       <c r="H22">
-        <v>16.02698707079787</v>
+        <v>9.341489249751152</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.78698135236271</v>
+        <v>6.10315955780141</v>
       </c>
       <c r="K22">
-        <v>10.27095646956198</v>
+        <v>14.51948692230128</v>
       </c>
       <c r="L22">
-        <v>11.31588531004004</v>
+        <v>8.169406855621522</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.28331055512667</v>
+        <v>15.60441068407135</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.54743556512819</v>
+        <v>18.44701738580745</v>
       </c>
       <c r="C23">
-        <v>10.96172985795011</v>
+        <v>7.795083065106585</v>
       </c>
       <c r="D23">
-        <v>9.711710709993515</v>
+        <v>7.744176584416771</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.86334685092128</v>
+        <v>22.67893574949861</v>
       </c>
       <c r="G23">
-        <v>35.51934524448081</v>
+        <v>24.78027352155516</v>
       </c>
       <c r="H23">
-        <v>16.04553059546099</v>
+        <v>9.371433528778159</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.79601626813729</v>
+        <v>6.120935498496525</v>
       </c>
       <c r="K23">
-        <v>10.18223887831515</v>
+        <v>14.2860729687855</v>
       </c>
       <c r="L23">
-        <v>11.30687919399426</v>
+        <v>8.087821482583299</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.31453641333204</v>
+        <v>15.6236612492374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.09787359565825</v>
+        <v>17.07319892049417</v>
       </c>
       <c r="C24">
-        <v>10.99229501772733</v>
+        <v>7.877509492826635</v>
       </c>
       <c r="D24">
-        <v>9.65883897839195</v>
+        <v>7.372976553157661</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.97832112896423</v>
+        <v>22.43662790794637</v>
       </c>
       <c r="G24">
-        <v>35.68281857100462</v>
+        <v>24.53959321351413</v>
       </c>
       <c r="H24">
-        <v>16.11969664196815</v>
+        <v>9.496370968987696</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.83198078091697</v>
+        <v>6.192103379325464</v>
       </c>
       <c r="K24">
-        <v>9.839919975553183</v>
+        <v>13.36682121390629</v>
       </c>
       <c r="L24">
-        <v>11.27499770658056</v>
+        <v>7.776460485132003</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.44095993674792</v>
+        <v>15.72497375688573</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.60173142717086</v>
+        <v>15.46399482146872</v>
       </c>
       <c r="C25">
-        <v>11.02881092694039</v>
+        <v>7.974336352473732</v>
       </c>
       <c r="D25">
-        <v>9.60652006598008</v>
+        <v>6.961351257536251</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.12848208150153</v>
+        <v>22.25381282321875</v>
       </c>
       <c r="G25">
-        <v>35.89405510508868</v>
+        <v>24.40175576435522</v>
       </c>
       <c r="H25">
-        <v>16.2081148120579</v>
+        <v>9.653932364858399</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.87452055201091</v>
+        <v>6.276799502978965</v>
       </c>
       <c r="K25">
-        <v>9.459042193630546</v>
+        <v>12.30045068261329</v>
       </c>
       <c r="L25">
-        <v>11.24546976929402</v>
+        <v>7.437041952066689</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.5947301044241</v>
+        <v>15.88983848546813</v>
       </c>
     </row>
   </sheetData>
